--- a/Example Data.xlsx
+++ b/Example Data.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\immregistries\Puente\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C080F5-7967-46D7-8EDE-9A9901553798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{094F55A5-7525-4EE0-AFF3-A0CDD728DD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{5B183573-DB22-42BD-9F06-D83BE07411A2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="29070" windowHeight="19305" xr2:uid="{5B183573-DB22-42BD-9F06-D83BE07411A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Vaccination event ID</t>
   </si>
@@ -192,6 +188,21 @@
   </si>
   <si>
     <t>Missing First name</t>
+  </si>
+  <si>
+    <t>20201214HS</t>
+  </si>
+  <si>
+    <t>123 E Main St</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AAY088</t>
   </si>
 </sst>
 </file>
@@ -546,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA38DD-4534-4E95-AEF2-E06F4D31823C}">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +748,9 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
@@ -748,6 +762,30 @@
       </c>
       <c r="I2" t="s">
         <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2">
+        <v>85203</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44179</v>
+      </c>
+      <c r="X2">
+        <v>207</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44211</v>
       </c>
       <c r="AT2" t="s">
         <v>50</v>
